--- a/M&A-Test.xlsx
+++ b/M&A-Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHANTHINI_M\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHANTHINI_M\Documents\ILMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012A553B-25BD-455A-B6A1-6E06B67116FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32523018-9B90-40F5-B431-A4FD6BF0AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6460531A-FA14-4C02-BA09-5AAA46D5F0BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>tender offers</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Merger/Statutory</t>
   </si>
   <si>
-    <t>Cash Consideration Pro Forma Shares Outstanding Purchase Price Allocation</t>
-  </si>
-  <si>
     <t>Restructuring Charges</t>
   </si>
   <si>
@@ -138,15 +135,9 @@
     <t>Excess Purchase Price</t>
   </si>
   <si>
-    <t>merger of equals.</t>
-  </si>
-  <si>
     <t>purchase deal</t>
   </si>
   <si>
-    <t>Market-extension merger Product-extension merger Conglomeration</t>
-  </si>
-  <si>
     <t>Purchase Mergers</t>
   </si>
   <si>
@@ -300,12 +291,6 @@
     <t>Recapitalization</t>
   </si>
   <si>
-    <t>Economies of Scale  Economies of Scope Equity Issuance Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisition of Assets Congeneric mergers: </t>
-  </si>
-  <si>
     <t>Horizontal merger: Vertical merger Conglomeration</t>
   </si>
   <si>
@@ -324,14 +309,45 @@
     <t>Mergers and acquisitions</t>
   </si>
   <si>
-    <t>purchase of assets,management acquisitions</t>
+    <t>Acquisition of Assets, Congeneric mergers</t>
+  </si>
+  <si>
+    <t>purchase of assets,
+management acquisitions</t>
+  </si>
+  <si>
+    <t>merger of equals</t>
+  </si>
+  <si>
+    <t>Cash Consideration</t>
+  </si>
+  <si>
+    <t>Pro Forma Shares</t>
+  </si>
+  <si>
+    <t>Outstanding Purchase</t>
+  </si>
+  <si>
+    <t>Price Allocation</t>
+  </si>
+  <si>
+    <t>Economies of Scale</t>
+  </si>
+  <si>
+    <t>Economies of Scope</t>
+  </si>
+  <si>
+    <t>Equity Issuance Fees</t>
+  </si>
+  <si>
+    <t>Market-extension merger, Product-extension merger, Conglomeration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,28 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFF7941E"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -371,6 +368,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,23 +414,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,514 +752,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312A480A-6A8C-4859-A9B2-9F92A42C4F34}">
-  <dimension ref="H3:I188"/>
+  <dimension ref="H3:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="77.140625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="1" t="s">
-        <v>95</v>
+      <c r="H3" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="3" t="s">
-        <v>96</v>
+    <row r="5" spans="8:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>17</v>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>25</v>
+      <c r="H30" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="2" t="s">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34" t="s">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="2" t="s">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="3" t="s">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" t="s">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="3" t="s">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H41" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H43" s="2" t="s">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="2" t="s">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H55" s="2" t="s">
-        <v>44</v>
+      <c r="H55" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" t="s">
-        <v>45</v>
+      <c r="H56" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H59" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H61" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H63" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H65" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H66" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H68" t="s">
-        <v>57</v>
+      <c r="H68" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H69" s="2" t="s">
-        <v>58</v>
+      <c r="H69" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H70" t="s">
-        <v>59</v>
+      <c r="H70" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H71" s="2" t="s">
-        <v>60</v>
+      <c r="H71" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H72" s="1" t="s">
-        <v>61</v>
+      <c r="H72" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I73" s="2"/>
+      <c r="H73" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="74" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H74" t="s">
-        <v>63</v>
+      <c r="H74" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H76" t="s">
-        <v>65</v>
+      <c r="H76" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="2" t="s">
-        <v>10</v>
+      <c r="H77" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H78" t="s">
-        <v>66</v>
+      <c r="H78" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H80" t="s">
-        <v>68</v>
+      <c r="H80" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" s="2" t="s">
-        <v>69</v>
+      <c r="H81" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" t="s">
-        <v>94</v>
+      <c r="H82" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" t="s">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H85" s="2" t="s">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="2" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H91" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H96" t="s">
-        <v>83</v>
+      <c r="H96" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H105" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H101" s="2"/>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H103" s="2"/>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H105" s="1"/>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" s="3"/>
@@ -1242,37 +1289,37 @@
       <c r="H109" s="3"/>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H111" s="2"/>
+      <c r="H111" s="3"/>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H113" s="2"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H115" s="3"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H117" s="2"/>
+      <c r="H117" s="3"/>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" s="3"/>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H121" s="2"/>
+      <c r="H121" s="7"/>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" s="3"/>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H125" s="3"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H127" s="2"/>
+      <c r="H127" s="3"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H129" s="2"/>
+      <c r="H129" s="7"/>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H131" s="1"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" s="3"/>
@@ -1281,46 +1328,46 @@
       <c r="H135" s="3"/>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H137" s="2"/>
+      <c r="H137" s="3"/>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H139" s="3"/>
+      <c r="H139" s="7"/>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H141" s="2"/>
+      <c r="H141" s="7"/>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H143" s="2"/>
+      <c r="H143" s="3"/>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H145" s="3"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" s="3"/>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H149" s="2"/>
+      <c r="H149" s="3"/>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H151" s="2"/>
+      <c r="H151" s="7"/>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H153" s="2"/>
+      <c r="H153" s="7"/>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H155" s="2"/>
+      <c r="H155" s="3"/>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H157" s="2"/>
+      <c r="H157" s="3"/>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H159" s="2"/>
+      <c r="H159" s="3"/>
     </row>
     <row r="161" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H161" s="1"/>
+      <c r="H161" s="3"/>
     </row>
     <row r="163" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H163" s="2"/>
+      <c r="H163" s="3"/>
     </row>
     <row r="165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H165" s="3"/>
@@ -1331,53 +1378,62 @@
     <row r="169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H169" s="3"/>
     </row>
-    <row r="171" spans="8:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="H171" s="4"/>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="7"/>
     </row>
     <row r="173" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H174" s="1"/>
+      <c r="H173" s="7"/>
     </row>
     <row r="175" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H178" s="1"/>
+      <c r="H175" s="7"/>
+    </row>
+    <row r="177" spans="8:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="H177" s="4"/>
     </row>
     <row r="179" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H179" s="1"/>
+      <c r="H179" s="3"/>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H180" s="1"/>
+      <c r="H180" s="3"/>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H181" s="1"/>
+      <c r="H181" s="3"/>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H182" s="1"/>
+      <c r="H182" s="3"/>
     </row>
     <row r="183" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H183" s="1"/>
+      <c r="H183" s="3"/>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H184" s="1"/>
+      <c r="H184" s="3"/>
     </row>
     <row r="185" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="8:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H186" s="5"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="3"/>
     </row>
     <row r="188" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H188" s="2"/>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="8:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H192" s="5"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H194" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/M&A-Test.xlsx
+++ b/M&A-Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHANTHINI_M\Documents\ILMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32523018-9B90-40F5-B431-A4FD6BF0AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B1E380-DCA4-40CC-9644-479290CEF315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6460531A-FA14-4C02-BA09-5AAA46D5F0BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>tender offers</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Market-extension merger, Product-extension merger, Conglomeration</t>
+  </si>
+  <si>
+    <t>Copyright Infosys</t>
   </si>
 </sst>
 </file>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312A480A-6A8C-4859-A9B2-9F92A42C4F34}">
-  <dimension ref="H3:I194"/>
+  <dimension ref="E3:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H58"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,82 +836,85 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H23" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H24" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H25" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H28" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H32" s="3" t="s">
         <v>23</v>
       </c>
